--- a/merged_file.xlsx
+++ b/merged_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,410 +436,4648 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Titre</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Societe</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Jour</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Salaire</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Electrical Mechanical or Industrial Engineer - Tunisia</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>placeXindian District, New Taipei City, Taiwan</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mid</t>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 800,00  - 24 000,00 </t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Material Engineer (Metallurgy) - Power Plants - Tunisia</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>placeRedwood City, CA, USA; New York, NY, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Advanced</t>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 800,00  - 18 000,00 </t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Transformer - Power Plants - Tunisia</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>placeSunnyvale, CA, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mid</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Maintenance (Contractor) - Power Plants - Tunisia</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>placeAustell, GA, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Early</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mechanical - Asset Management - Tunisia</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>placeAtlanta, GA, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Early</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Construction Project Engineer</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Vivo Energy</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>placeSunnyvale, CA, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mid</t>
-        </is>
-      </c>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Technician - Asset Management - Tunisia</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>placeAtlanta, GA, USA; New York, NY, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Advanced</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Distribution Engineer</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>corporate_fareFitbit</t>
+          <t>Vivo Energy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>placeWarsaw, Poland</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Early</t>
-        </is>
-      </c>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer - Power Plant - Tunisia</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>placeSan Diego, CA, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mid</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Young Graduate - Jeune diplômé(e) - SE Graduate Program</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Schneider Electric</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>placeChicago, IL, USA</t>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mid</t>
-        </is>
-      </c>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BOP - Power Plants - Tunisia</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>placePhoenix, AZ, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mid</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Fire Fighting - Power Plants - Tunisia</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>placeSan Francisco, CA, USA; Mountain View, CA, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mid</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Operation Engineer - Power Plants - Tunisia</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>placeSunnyvale, CA, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mid</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>I&amp;C - Power Plants - Tunisia</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>placeSeattle, WA, USA; Sunnyvale, CA, USA; +3 more; +2 more</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Advanced</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer - CAE Department</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>laptop_windowsRemote eligible</t>
+          <t>MICLA Engineering &amp; Design</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>placeWarsaw, Poland</t>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mid</t>
-        </is>
-      </c>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chemical Engineer - Power Plants - Tunisia</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bar_chartDirector+</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>placeBuenos Aires, Argentina</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Advanced</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Marine Technical Lead</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Vivo Energy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>placeSunnyvale, CA, USA; Seattle, WA, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mid</t>
-        </is>
-      </c>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Performance Engineer - Power Plants - Tunisia</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>placeNew York, NY, USA; San Francisco, CA, USA; +4 more; +3 more</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Early</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Protection - Power Plants - Tunisia</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>placeMountain View, CA, USA</t>
+          <t>Gouvernorat Tunis, Tunisie</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Advanced</t>
-        </is>
-      </c>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Electrical Engineer - Power Plant - Tunisia</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
+          <t>Linked4HR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>placeSunnyvale, CA, USA; Atlanta, GA, USA; +9 more; +8 more</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Electrical - Asset Management - Tunisia</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>laptop_windowsRemote eligible</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+          <t>Linked4HR</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Maintenance Supervisor</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+          <t>Pfizer</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Responsable Qualité H/F</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>corporate_fareGoogle</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+          <t>Talentup</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Grombalia, Gouvernorat Nabeul, Tunisie</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Performance Engineer - Asset Management - Tunisia</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Linked4HR</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Policy Procedures &amp; Manuals Documentation Specialist -</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Linked4HR</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ingénieur Industrialisation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Enfidha, Gouvernorat Sousse, Tunisie</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Data Operations Analyst</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Harvest Group</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Gouvernorat Sousse, Tunisie</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-06-23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Project Lead, Tunisia</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ACDI/VOCA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Civil Engineer - Asset Management - Tunisia</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Linked4HR</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Laboratory Engineer H/F</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ben Arous, Tunisie</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Material Engineer - Asset Management - Tunisia</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Linked4HR</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Contracts Engineer - Power Plants - Tunisia</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Linked4HR</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TU - Last Mile Manager (Full Time)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Jumia Group</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Generator - Electrical Control Devices (Power Generatio</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Linked4HR</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ingénieur Industrialisation</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Enfidha, Gouvernorat Sousse, Tunisie</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Automation Engineer</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BIC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Gouvernorat Bizerte, Tunisie</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-07-08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Brand and Product Marketing Associate Manager</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Anywr</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Customer Operations Team Leader</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Anywr</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Service Engineer - Elevators &amp; Escalators</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>KONE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Technical Service Consultant</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FreeBalance</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SQE Engineer</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Aptiv</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>JUNIOR DEVELOPER - Dubai, UAE</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Cobblestone Energy</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Junior Software Engineer (m/f/d)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>L-mobile</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Gouvernorat Nabeul, Tunisie</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Process/Manufacturing Engineering Engineer (M/F)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ben Arous, Tunisie</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Process/Manufacturing Engineering Engineer (M/F)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ben Arous, Tunisie</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Process/Manufacturing Engineering Engineer (M/F)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ben Arous, Tunisie</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ingénieur Exploitation et Maintenance Systèmes Stockage</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Talentup</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Responsable Certification et Relations Clients H/F</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Talentup</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-04-09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Quality Engineer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Baxter International Inc.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Gouvernorat La Manouba, Tunisie</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Production Team Leader (1)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HUBER+SUHNER</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sousse, Gouvernorat Sousse, Tunisie</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Oferta: Operador Indiferenciado (m/f) - Odemira</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Multitempo - Empresa de Tr</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Automotive ECUs Test Development and Validation Enginee</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Primatec Engineering</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sfax, Gouvernorat Sfax, Tunisie</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-03-23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Junior QA Analyst</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Planisware</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Oferta: Engenheiro (a) Civil (diretor de obra) Almodova</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fillwork - Human Resources</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CONTROLLING &amp; PLANNING ASSOCIATE MANAGER</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Anywr</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Executive assistant General Manager H/F - Banque</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Talentup</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-05-03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Maintenance Technician</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BIC</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Gouvernorat Bizerte, Tunisie</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Test automation engineer</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Capgemini Engineering</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ingénieur Travaux Barrage - VIE Tunisie (H/F)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hydrokarst</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-04-21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Junior Mobile Application Engineer</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Kamioun - كميون</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Electronics Testing Engineer</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SIT</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Experts &amp; Local Partner Network - SEA 2023 LOT 14 – Mig</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>NTU International A/S</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ingénieur Recherche et développent (H/F)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ben Arous, Tunisie</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vneuron Risk &amp; Compliance</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Validation Engineer(M/F)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ben Arous, Tunisie</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-07-16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Experts &amp; Local Partner Network - SEA 2023 LOT 4 – Sust</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>NTU International A/S</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2.1 Process Improvement at Kamioun</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Kamioun - كميون</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant (m/f/d)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>L-mobile</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Gouvernorat Nabeul, Tunisie</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oferta de emprego: Encarregado de Obras (m/f) - Beja</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Globaltemp</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Product Manager</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Yassir</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Expert Python</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Amaris Consulting</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-05-13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Gestionnaire de Facturation Bilingue Français + Anglais</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Free2move</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-06-01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Functional Safety Manager (m/f/d)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>LEONI Maroc</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sousse Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HSE COORDINATOR</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Aptiv</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chief Operating Officer (French Fluent - Remote EU)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Paradox Institute</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Experts &amp; Local Partner Network - SEA 2023 LOT 1 – Clim</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>NTU International A/S</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Technical Solutions Representative</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ariana, Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Experts &amp; Local Partner Network - SEA 2023 LOT 2 – Sust</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>NTU International A/S</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Technical Solutions Representative</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ariana, Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Tech maintenance</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Baxter International Inc.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Gouvernorat La Manouba, Tunisie</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>EMEA Senior Procurement Supply Continuity Manager</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Baxter International Inc.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Gouvernorat La Manouba, Tunisie</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-06-01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Product Buyer</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Baxter International Inc.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Gouvernorat La Manouba, Tunisie</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Quality Management Specialist</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Yassir</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Anúncio de emprego: Engenheiro (a) Civil (diretor de ob</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Fillwork - Human Resources</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>LOGISTICS SUPERVISOR</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TE Connectivity</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Taieb Mhiri, Gouvernorat Tunis, Tunisi</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Expert Functional Safety Engineer (m/f/d)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>LEONI Maroc</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sousse Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Technicien Qualité UAP H/F</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Socomec Group</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ben Arous, Tunisie</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Technical Support Engineer I</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Expert Development Excellence</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>LEONI Maroc</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sousse Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oferta de emprego: Mecânico Equip Mineiros ou Terraplan</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Support Services - Asset Management - Tunisia</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Linked4HR</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>cyber security</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Group-IPS</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Gouvernorat Sfax, Tunisie</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Service Delivery Manager</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Amaris Consulting</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-06-08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Brand Safety Checker - French speaker</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>YEAH</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Grand Tunis Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Technical Support Engineer (m/f/x)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Lauterbach GmbH</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sfax, Gouvernorat Sfax, Tunisie</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-06-23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ingénieur qualité UAP(H/F)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ben Arous, Tunisie</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Project Engineer (m/f/d) Sage X3</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>L-mobile</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Gouvernorat Nabeul, Tunisie</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Responsable Service Laboratoire Physique Textile</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SGS</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Project Manager execution</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Schneider Electric</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SST-INGENIEUR.E DEVELOPPEMENT N1 H/F</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Sagemcom</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist - Tunis</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Acredius</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oferta de emprego: Eletricista Auto (M/F) – Minas de Al</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Signalling Expert - Metro Project</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ewi recruitment</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sousse Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oferta de emprego: Eletricista Auto (M/F) – Minas de Al</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oferta: Eletricista Auto (M/F) – Minas de Aljustrel e C</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1.2 Design a monitoring and decision-making dashboard f</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Kamioun - كميون</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oferta: Eletricista Auto (M/F) – Minas de Aljustrel e C</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1.1 Design and Development of a DevOps architecture</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Kamioun - كميون</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Cost Controller</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Four Seasons Hotels and Re</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ingénieur IT H/F</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Socomec Group</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ben Arous, Tunisie</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Methods/Process Engineering Technician(M/F)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Djedeida, Gouvernorat La Manouba, Tuni</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SUPPLIER DEVELOPMENT ANALYST</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TE Connectivity</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-06-25</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Expert Python</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Amaris Consulting</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-06-01</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist (Min 5 years experience)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Ooredoo Tunisie</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ingénieur Sureté de Fonctionnement H/F</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SEGULA Technologies</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Gouvernorat Sfax, Tunisie</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Un(e) Consultant(e) Support et Intégration</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TALYS</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Manager Cybersécurité GRC</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Mazars en Tunisie</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Anúncio de emprego: Eletricista Auto (M/F) – Minas de A</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Backend Software Engineer</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Yassir</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2022-09-24</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Run Manager</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Amaris Consulting</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Ingénieur Process brasage électronique</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Watts Water Technologies</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Gouvernorat Monastir, Tunisie</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-07-09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Gestionnaire de Facturation Bilingue Français + Anglais</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Free2move</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Analyste programmeur AS400 (IBM i) - Remote</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pragmatike</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Java Engineer for Open Source (Full-Stack)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Think-it</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-04-25</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Functional Safety Manager (m/f/d)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>LEONI</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sousse Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Anúncio de emprego: Eletricista Auto (M/F) – Minas de A</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Oferta de emprego: Serralheiro Polivalente (M/F) - Alju</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Material Planner (Italian knowledge required)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Baxter International Inc.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Gouvernorat La Manouba, Tunisie</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Coding Teacher - Online Classes\Coding Instructor</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>BYJU'S   (GCC Region)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Embedded Software Developer (m/f/x) in Sfax, Tunisia</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Lauterbach GmbH</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Sfax, Gouvernorat Sfax, Tunisie</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-06-23</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Technicienne en production et gestion des sinistres</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Mantu</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ISS Officer</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Mazars en Tunisie</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Manager PCI DSS</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>FHI 360</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Business Advisor</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>LEONI</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Sfax Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Expert Development Excellence</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Jobs for Humanity</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Sousse Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Product Support Representative III</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Yassir</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Ariana, Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>LEONI</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Expert Functional Safety Engineer (m/f/d)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Société Chaabane des Trava</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Sousse Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Mécanicien d'engain</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Primatec Engineering</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Mareth, Gouvernorat Gabès, Tunisie</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>DevOps/CI Developer</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Capgemini Engineering</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Sfax, Gouvernorat Sfax, Tunisie</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-03-19</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Embedded Software Coordinator (Agility Experience Requi</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>NTU International A/S</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Experts &amp; Local Partner Network - SEA 2023 LOT 13 - Hea</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>NTU International A/S</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Experts &amp; Local Partner Network - SEA 2023 LOT 6 – Macr</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Responsable Technique(H/F)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>BYJU'S   (GCC Region)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Enfidha, Gouvernorat Sousse, Tunisie</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-07-16</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Coding Teacher</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Valeo</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Responsable Technique(H/F)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Lithe Transformation® – Im</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Enfidha, Gouvernorat Sousse, Tunisie</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-07-16</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>C# .NET Full-Stack Developer</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>LEONI Maroc</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Expert VAVE Coordinator (m/f/d)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>International Information</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sousse Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Analyste développeur IOS / Android</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Anúncio de emprego: Mecânico Equip Mineiros ou Terrapla</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Capgemini Engineering</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Intégrateur SW embarqué</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Amaris Consulting</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Service Delivery Manager</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Aptiv</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-06-08</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>cutting System Engineer</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>BYJU'S   (GCC Region)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Coding Teacher</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Elevus</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-05-15</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Oferta: Mecânico de Equipamentos de Colheita Super Inte</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ITSM Customer Onboarding Project Manager</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Inetum</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Ariana, Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Chef de projet Senior H/F</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Yassir</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Think-it</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer (Full-Stack)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Mantu</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-05-01</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Dotnet Developer</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Product Support Representative III</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Yassir</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Mobile Android Engineer</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ODDO BHF</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022-09-24</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Ingénieur Développement Sénior .Net</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Menzel</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Senior Civil Engineer Volunteer - Historic Monument Res</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>PIVA Software</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Délégation Djerba Houmet Souk, Gouvern</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Senior Full Stack Engineer</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>iObeya</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Gouvernorat Sfax, Tunisie</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>QA Engineer (focus Analyst)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Anúncio de emprego: Serralheiro Polivalente (M/F) - Alj</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Psicotempos</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Mécanicien de camion de poids lourds</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Jobs for Humanity</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Gouvernorat Sousse, Tunisie</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Anúncio de emprego: Serralheiro Polivalente (M/F) - Alj</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Prysmian Group</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Beja, Gouvernorat Béja, Tunisie</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Product Support Representative Senior</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Yassir</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Ariana, Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Operateur ligne</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Yassir</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Menzel Bouzelfa Sud, Gouvernorat Nabeu</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Engineering Manager Node.js (f/m/x)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Jobs for Humanity</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Mobile iOS Engineer</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Devoteam Tunisie</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022-09-24</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Back End Software Developer</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Planisware</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Ariana, Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-06-23</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>RS TECHNOLOGIES</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Soudeur</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>LEONI</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Oued Ellil, Gouvernorat La Manouba, Tu</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Planisware Entreprise Consultant</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-04-29</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Développeur/Consultant Java H/F (Confirmé / Senior)</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Expert VAVE Coordinator (m/f/d)</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Linedata</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Sousse Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>HPC Global Remote Service Specialist Engineer</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>GlobalLogic Poland</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Product Support Representative Senior</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Développeur JAVA/JEE confirmé</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>HPE Aruba Networking</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Tunis, Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>AUTOSAR Architect (Relocation to Poland)</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>iObeya</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>HPC Global Remote Service Specialist Engineer – HPC Bus</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Aruba Technical Assistant Centre Engineer - French spea</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Affinity</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>QA Engineer (focus Automation)</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Cognism</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Software Engineer C/PLSQL</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Mantu</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Dotnet Core Developer (Portugal)</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>L-mobile</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mid Backend Engineer- Kaspr</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Sfax, Gouvernorat Sfax, Tunisie</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>RGI Group</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023-06-01</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>(Senior) Full Stack Web Developer (m/f/d)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Allo Réparateur</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Gouvernorat Nabeul, Tunisie</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Developpeur COBOL</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Anywr</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Technical Leader JAVA JEE</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>GlobalLogic Poland</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Technicien spécialiste en réparation de smartphones, ta</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>NeoXam Tunisie</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Ennasr 2, Gouvernorat Ariana, Tunisie</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Senior Unity Mobile Developer</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>GlobalLogic Poland</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mid/Senior AUTOSAR Engineer (Relocation to Poland)</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>iObeya</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Ingénieur Développement Java Senior - Tunis</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Inetum</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Mid/Senior AUTOSAR Adaptive Engineer (Relocation to Pol</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>iObeya</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Software Engineer Backend (PHP) / Devops</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Développeurs Java Senior H/F</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer Backend (Java / Spring)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Gouvernorat Tunis, Tunisie</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
